--- a/INTLINE/data/142/STANOR/12462 Producer price index Industry combined.xlsx
+++ b/INTLINE/data/142/STANOR/12462 Producer price index Industry combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <x:si>
     <x:t>12462: Producer price index. Oil/ gas extraction, manufacturing, mining and electricity (2015=100), by month, industry/commodity group, market and contents</x:t>
   </x:si>
@@ -824,6 +824,15 @@
   </x:si>
   <x:si>
     <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M05</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Starting with the index for January 2019, published 11 February 2019, the reference year for PPI is changed to 2015 (2015 = 100). Previously published series with reference year 2015=100 is available in the archive and/or closed time series.
@@ -836,7 +845,7 @@
     <x:t>Producer price index (2015=100):</x:t>
   </x:si>
   <x:si>
-    <x:t>20220310 08:00</x:t>
+    <x:t>20220610 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1319,7 +1328,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B330"/>
+  <x:dimension ref="A1:B333"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3476,204 +3485,228 @@
         <x:v>144.5</x:v>
       </x:c>
     </x:row>
+    <x:row r="272" spans="1:2">
+      <x:c r="A272" s="2" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B272" s="3" t="n">
+        <x:v>149.3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="273" spans="1:2">
-      <x:c r="A273" s="4" t="s">
-        <x:v>270</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="275" spans="1:2">
-      <x:c r="A275" s="0" t="s">
+      <x:c r="A273" s="2" t="s">
         <x:v>271</x:v>
       </x:c>
+      <x:c r="B273" s="3" t="n">
+        <x:v>154.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274" spans="1:2">
+      <x:c r="A274" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B274" s="3" t="n">
+        <x:v>159.3</x:v>
+      </x:c>
     </x:row>
     <x:row r="276" spans="1:2">
-      <x:c r="A276" s="0" t="s">
-        <x:v>272</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="277" spans="1:2">
-      <x:c r="A277" s="0" t="s">
+      <x:c r="A276" s="4" t="s">
         <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278" spans="1:2">
+      <x:c r="A278" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:2">
       <x:c r="A279" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:2">
       <x:c r="A280" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:2">
       <x:c r="A282" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:2">
       <x:c r="A283" s="0" t="s">
-        <x:v>272</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="284" spans="1:2">
-      <x:c r="A284" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:2">
       <x:c r="A285" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:2">
       <x:c r="A286" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="287" spans="1:2">
+      <x:c r="A287" s="0" t="s">
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:2">
       <x:c r="A288" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:2">
       <x:c r="A289" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="290" spans="1:2">
-      <x:c r="A290" s="0" t="s">
         <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="291" spans="1:2">
+      <x:c r="A291" s="0" t="s">
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:2">
       <x:c r="A292" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:2">
       <x:c r="A293" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="294" spans="1:2">
-      <x:c r="A294" s="0" t="s">
         <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295" spans="1:2">
+      <x:c r="A295" s="0" t="s">
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:2">
       <x:c r="A296" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:2">
       <x:c r="A297" s="0" t="s">
-        <x:v>287</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="298" spans="1:2">
-      <x:c r="A298" s="0" t="s">
         <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="299" spans="1:2">
+      <x:c r="A299" s="0" t="s">
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:2">
       <x:c r="A300" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:2">
       <x:c r="A301" s="0" t="s">
-        <x:v>290</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="302" spans="1:2">
-      <x:c r="A302" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
     </x:row>
-    <x:row r="306" spans="1:2">
-      <x:c r="A306" s="0" t="s">
+    <x:row r="303" spans="1:2">
+      <x:c r="A303" s="0" t="s">
         <x:v>292</x:v>
       </x:c>
     </x:row>
-    <x:row r="308" spans="1:2">
-      <x:c r="A308" s="0" t="s">
+    <x:row r="304" spans="1:2">
+      <x:c r="A304" s="0" t="s">
         <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="305" spans="1:2">
+      <x:c r="A305" s="0" t="s">
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:2">
       <x:c r="A309" s="0" t="s">
-        <x:v>272</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="310" spans="1:2">
-      <x:c r="A310" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:2">
       <x:c r="A311" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:2">
       <x:c r="A312" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:2">
       <x:c r="A313" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="314" spans="1:2">
+      <x:c r="A314" s="0" t="s">
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:2">
       <x:c r="A315" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:2">
       <x:c r="A316" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="317" spans="1:2">
-      <x:c r="A317" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="318" spans="1:2">
+      <x:c r="A318" s="0" t="s">
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:2">
       <x:c r="A319" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:2">
       <x:c r="A320" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="326" spans="1:2">
-      <x:c r="A326" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="327" spans="1:2">
-      <x:c r="A327" s="0" t="s">
         <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="322" spans="1:2">
+      <x:c r="A322" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="323" spans="1:2">
+      <x:c r="A323" s="0" t="s">
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:2">
       <x:c r="A329" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:2">
       <x:c r="A330" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332" spans="1:2">
+      <x:c r="A332" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="333" spans="1:2">
+      <x:c r="A333" s="0" t="s">
+        <x:v>306</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="A273:B273"/>
+    <x:mergeCell ref="A276:B276"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
